--- a/src/main/java/com/qa/crmpro/testdata/CrmProTestData.xlsx
+++ b/src/main/java/com/qa/crmpro/testdata/CrmProTestData.xlsx
@@ -1,99 +1,103 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pawan\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{25900DF2-CB59-464F-B362-D44052F3D215}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{54D36DBD-5BBC-48C7-8E3E-03A3C5A973AD}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="181029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="20">
   <si>
     <t>Title</t>
   </si>
   <si>
+    <t>Mr.</t>
+  </si>
+  <si>
+    <t>Mrs.</t>
+  </si>
+  <si>
     <t>firstname</t>
   </si>
   <si>
+    <t>Lol</t>
+  </si>
+  <si>
+    <t>Bro</t>
+  </si>
+  <si>
+    <t>Hi</t>
+  </si>
+  <si>
+    <t>Kid</t>
+  </si>
+  <si>
+    <t>Idot</t>
+  </si>
+  <si>
     <t>lastname</t>
   </si>
   <si>
+    <t>sam</t>
+  </si>
+  <si>
+    <t>poo</t>
+  </si>
+  <si>
+    <t>fish</t>
+  </si>
+  <si>
+    <t>bits</t>
+  </si>
+  <si>
+    <t>mouse</t>
+  </si>
+  <si>
     <t>Company</t>
   </si>
   <si>
-    <t>Mr.</t>
-  </si>
-  <si>
-    <t>Sheena</t>
-  </si>
-  <si>
-    <t>Shoby</t>
-  </si>
-  <si>
-    <t>SDET1</t>
-  </si>
-  <si>
-    <t>Mrs.</t>
-  </si>
-  <si>
-    <t>Kan</t>
-  </si>
-  <si>
-    <t>Oberoi</t>
-  </si>
-  <si>
-    <t>QA Manager</t>
-  </si>
-  <si>
-    <t>Dr.</t>
-  </si>
-  <si>
-    <t>Sagar</t>
-  </si>
-  <si>
-    <t>LN</t>
-  </si>
-  <si>
-    <t>SDET2</t>
-  </si>
-  <si>
-    <t>tom</t>
-  </si>
-  <si>
-    <t>peter</t>
-  </si>
-  <si>
-    <t>Director</t>
+    <t>Google</t>
+  </si>
+  <si>
+    <t>Git</t>
+  </si>
+  <si>
+    <t>yoyo</t>
+  </si>
+  <si>
+    <t>apple</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
-    </font>
-    <font>
-      <sz val="9.0"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <color theme="1"/>
-      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,105 +105,185 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
-    <border/>
+  <borders count="1">
     <border>
-      <left style="thin">
-        <color rgb="FF9A9A9A"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF9A9A9A"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF9A9A9A"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF9A9A9A"/>
-      </bottom>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment readingOrder="0" vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment vertical="bottom"/>
-    </xf>
+  <cellXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Sheets">
+    <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="FFFFFF"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="000000"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="FFFFFF"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4285F4"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="EA4335"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="FBBC04"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="34A853"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="FF6D01"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="46BDC6"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="1155CC"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Sheets">
+    <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Arial"/>
-        <a:ea typeface="Arial"/>
-        <a:cs typeface="Arial"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -340,96 +424,279 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA0E92E5-27D0-4D2F-B0AB-C45A6FA90D75}">
+  <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C2" s="2" t="s">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="3">
-      <c r="A3" s="2" t="s">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" s="2" t="s">
+      <c r="C6" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-      <c r="C6" s="3"/>
-      <c r="D6" s="3"/>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100EF1EEA0729090B43B99EE4EAACD3F59E" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="f286870dcc92c5f301546150997a45ce">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="04b1bf684faafc6786a42e3d5b545946">
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all/>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EB0F68A-AEE9-439D-A666-E6B021362D4C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{33006758-CF95-40D6-96F0-8708484AC0AC}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3ACBAA27-09C5-4A23-8B24-407675E941AD}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>